--- a/docs/character_to_binary.xlsx
+++ b/docs/character_to_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Projetos\AVR_LED_Display\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3802386-90DD-46AC-8B3F-9616D4E1E4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24AE6F0-0A82-4108-954D-B487026E9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{A367FCC4-91DC-4DD8-983B-D1686758B3E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="14" xr2:uid="{A367FCC4-91DC-4DD8-983B-D1686758B3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,36 @@
     <sheet name="8" sheetId="9" r:id="rId9"/>
     <sheet name="9" sheetId="10" r:id="rId10"/>
     <sheet name="2p" sheetId="11" r:id="rId11"/>
+    <sheet name="A" sheetId="12" r:id="rId12"/>
+    <sheet name="B" sheetId="13" r:id="rId13"/>
+    <sheet name="C" sheetId="14" r:id="rId14"/>
+    <sheet name="D" sheetId="15" r:id="rId15"/>
+    <sheet name="E" sheetId="16" r:id="rId16"/>
+    <sheet name="F" sheetId="17" r:id="rId17"/>
+    <sheet name="G" sheetId="18" r:id="rId18"/>
+    <sheet name="H" sheetId="19" r:id="rId19"/>
+    <sheet name="I" sheetId="20" r:id="rId20"/>
+    <sheet name="J" sheetId="21" r:id="rId21"/>
+    <sheet name="K" sheetId="22" r:id="rId22"/>
+    <sheet name="L" sheetId="23" r:id="rId23"/>
+    <sheet name="M" sheetId="24" r:id="rId24"/>
+    <sheet name="N" sheetId="25" r:id="rId25"/>
+    <sheet name="O" sheetId="26" r:id="rId26"/>
+    <sheet name="P" sheetId="27" r:id="rId27"/>
+    <sheet name="Q" sheetId="28" r:id="rId28"/>
+    <sheet name="R" sheetId="29" r:id="rId29"/>
+    <sheet name="S" sheetId="30" r:id="rId30"/>
+    <sheet name="T" sheetId="31" r:id="rId31"/>
+    <sheet name="U" sheetId="32" r:id="rId32"/>
+    <sheet name="V" sheetId="33" r:id="rId33"/>
+    <sheet name="W" sheetId="34" r:id="rId34"/>
+    <sheet name="X" sheetId="35" r:id="rId35"/>
+    <sheet name="Y" sheetId="36" r:id="rId36"/>
+    <sheet name="Z" sheetId="37" r:id="rId37"/>
+    <sheet name="SPACE" sheetId="38" r:id="rId38"/>
+    <sheet name="SLASH" sheetId="39" r:id="rId39"/>
+    <sheet name="-" sheetId="40" r:id="rId40"/>
+    <sheet name="." sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
@@ -175,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,7 +219,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F39062-C24D-42DC-B0B9-7F0F01A19C21}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1197,6 +1230,1922 @@
       <c r="I9" t="str">
         <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
         <v>0x03,0b00110110,0b00110110,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AD2BB6-5616-4A9F-A06A-514DD6EC31FD}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111100</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b11111100</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x08,0b11111100,0b11111110,0b00011011,0b00011011,0b00011011,0b11111110,0b11111100,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259D4E04-D91A-4D8A-AD66-DEC930BAFFEF}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b01110110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11111111,0b11111111,0b11011011,0b11011011,0b11111111,0b01110110,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043370B-7676-4B97-BCA3-B12255F01771}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b00111100,0b01111110,0b11000011,0b11000011,0b11000011,0b11000011,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE5CE2C-041B-4AB6-843A-BFF6227D8A17}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11100111</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11111111,0b11111111,0b11000011,0b11100111,0b01111110,0b00111100,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1696D078-C3BD-42C8-82F0-D4A4082D9661}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x06,0b01111110,0b11111111,0b11011011,0b11011011,0b11011011,0b00000000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564155EE-A6EA-46A8-AFBA-6B9B119F8B33}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x06,0b11111110,0b11111111,0b00011011,0b00011011,0b00000011,0b00000000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C6D65-4C71-4E89-B130-49A5BE1BA6CC}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b01110011</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b00111110,0b01111111,0b11000011,0b11011011,0b11111011,0b01110011,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC89A4B-60B0-4B81-9E40-C3137880DCF5}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11111110,0b11111111,0b00011000,0b00011000,0b11111111,0b11111110,0b00000000,0b00000000</v>
       </c>
     </row>
   </sheetData>
@@ -1432,6 +3381,2400 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0AA5EE-CC28-4434-A23C-1A563F078CFB}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x05,0b11000011,0b11111111,0b11111111,0b11000011,0b00000000,0b00000000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C2B7E1-761A-4EB1-B742-631C76A9C5BB}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b01110000</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11100011</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b01110000,0b11100011,0b11000011,0b11111111,0b11111111,0b00000011,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7791A744-0E52-44C6-8CEC-8AA60DBBDB6B}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011100</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00110110</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11100011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11111111,0b11111111,0b00011100,0b00110110,0b11100011,0b11000001,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EE0E63-AA34-4AE0-BFD7-614949051A6C}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x06,0b11111111,0b11111110,0b11000000,0b11000000,0b11000000,0b00000000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367C660-A4ED-43C9-9F95-9F7B752945B2}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111100</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b11111100</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x09,0b11111100,0b01111110,0b00000011,0b00111111,0b00111111,0b00000011,0b01111110,0b11111100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263DA41D-2557-4A51-87F9-305981F4E11C}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00001110</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00111000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x08,0b11111111,0b11111111,0b00001110,0b00011100,0b00111000,0b11111111,0b11111111,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FECCEF-2736-4A84-A8AC-B409ED7EA8FD}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11100111</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11100111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x09,0b00111100,0b01111110,0b11100111,0b11000011,0b11000011,0b11100111,0b01111110,0b00111100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29473A-D0F1-4813-8B51-446B21FCF6E6}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00001110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11111110,0b01111111,0b00011011,0b00011011,0b00011011,0b00001110,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FB2349-18B9-4802-A09A-7FD363CB1ABE}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b01100011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b01100011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b01110011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b01111111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x09,0b00111110,0b01111111,0b01100011,0b01100011,0b01110011,0b01111111,0b11111110,0b11000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35822F-5F30-4E96-BECD-8B5F6B661323}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b01111011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11101111</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b10000110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11111110,0b11111111,0b00011011,0b01111011,0b11101111,0b10000110,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B56280-937C-45C9-9683-3BA23593961E}">
   <dimension ref="A1:K9"/>
@@ -1673,6 +6016,2288 @@
       <c r="I9" t="str">
         <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
         <v>0x08,0b11000100,0b11100110,0b11110011,0b11111011,0b11011111,0b11001111,0b11000110,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C384F4C-8C33-4E25-A1F0-E543012459D7}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b01001110</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11011111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b01110010</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b01001110,0b11011111,0b11011011,0b11011011,0b11111011,0b01110010,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638425D2-E595-47E8-A6FF-72D9A4E1B544}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11111111</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b00000011,0b00000011,0b11111111,0b11111111,0b00000011,0b00000011,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E556E295-D86E-438B-B02C-3E0D04DCDF8B}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b01111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111110</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b01111111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b01111111,0b11111110,0b11000000,0b11000000,0b11111110,0b01111111,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB12FF8-C5C4-41A7-B09D-7FDCD8777BFE}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00001111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b01110000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b01110000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00001111</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x08,0b00001111,0b00111111,0b01110000,0b11000000,0b01110000,0b00111111,0b00001111,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53451087-D729-4B20-AADD-C2D67FB980CD}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11111000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11111000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x09,0b00111111,0b01111110,0b11000000,0b11111000,0b11111000,0b11000000,0b01111110,0b00111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ADB235-0E2A-499D-92EB-97F93E74DC2A}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11100111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b11100111</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x09,0b11000011,0b11100111,0b01111110,0b00111100,0b00111100,0b01111110,0b11100111,0b11000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54360611-F19F-43F1-8F21-F4FE4F828538}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11000011</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11100111</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b01111110</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00111100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00011100</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00001110</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000111</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000011</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x09,0b11000011,0b11100111,0b01111110,0b00111100,0b00011100,0b00001110,0b00000111,0b00000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F8E86-C34A-4073-825B-9D040CF9A893}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b01000010</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11100011</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b11110011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b11011011</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b11001111</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b11000111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b01000010</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x08,0b01000010,0b11100011,0b11110011,0b11011011,0b11001111,0b11000111,0b01000010,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3AF8A-46DB-4B65-B687-C0EF40568DE7}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x01,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA25E2B3-7A81-4E59-B96A-23106F377554}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11100000</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b01110000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00001110</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b11000000,0b11100000,0b01110000,0b00011100,0b00001110,0b00000111,0b00000000,0b00000000</v>
       </c>
     </row>
   </sheetData>
@@ -1910,6 +8535,384 @@
       <c r="I9" t="str">
         <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
         <v>0x07,0b01000010,0b11000011,0b11011011,0b11011011,0b11111111,0b01111110,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3099027A-E3B8-48F0-A3A5-2624B2C046AE}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00011000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x07,0b00011000,0b00011000,0b00011000,0b00011000,0b00011000,0b00011000,0b00000000,0b00000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC1B92-C1D0-4CF8-B157-081ABB61A31E}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE("0b", IF(A$8="X","1","0"), IF(A$7="X","1","0"), IF(A$6="X","1","0"), IF(A$5="X","1","0"), IF(A$4="X","1","0"), IF(A$3="X","1","0"), IF(A$2="X","1","0"), IF(A$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J1">
+        <f>IF(I1="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("0b", IF(B$8="X","1","0"), IF(B$7="X","1","0"), IF(B$6="X","1","0"), IF(B$5="X","1","0"), IF(B$4="X","1","0"), IF(B$3="X","1","0"), IF(B$2="X","1","0"), IF(B$1="X","1","0"))</f>
+        <v>0b11000000</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">IF(I2="0b00000000",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("0b", IF(C$8="X","1","0"), IF(C$7="X","1","0"), IF(C$6="X","1","0"), IF(C$5="X","1","0"), IF(C$4="X","1","0"), IF(C$3="X","1","0"), IF(C$2="X","1","0"), IF(C$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("0b", IF(D$8="X","1","0"), IF(D$7="X","1","0"), IF(D$6="X","1","0"), IF(D$5="X","1","0"), IF(D$4="X","1","0"), IF(D$3="X","1","0"), IF(D$2="X","1","0"), IF(D$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("0b", IF(E$8="X","1","0"), IF(E$7="X","1","0"), IF(E$6="X","1","0"), IF(E$5="X","1","0"), IF(E$4="X","1","0"), IF(E$3="X","1","0"), IF(E$2="X","1","0"), IF(E$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("0b", IF(F$8="X","1","0"), IF(F$7="X","1","0"), IF(F$6="X","1","0"), IF(F$5="X","1","0"), IF(F$4="X","1","0"), IF(F$3="X","1","0"), IF(F$2="X","1","0"), IF(F$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("0b", IF(G$8="X","1","0"), IF(G$7="X","1","0"), IF(G$6="X","1","0"), IF(G$5="X","1","0"), IF(G$4="X","1","0"), IF(G$3="X","1","0"), IF(G$2="X","1","0"), IF(G$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("0b", IF(H$8="X","1","0"), IF(H$7="X","1","0"), IF(H$6="X","1","0"), IF(H$5="X","1","0"), IF(H$4="X","1","0"), IF(H$3="X","1","0"), IF(H$2="X","1","0"), IF(H$1="X","1","0"))</f>
+        <v>0b00000000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J1:J8)+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>CONCATENATE("0x0",K8,",",I1,",",I2,",",I3,",",I4,",",I5,",",I6,",",I7,",",I8)</f>
+        <v>0x03,0b11000000,0b11000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000</v>
       </c>
     </row>
   </sheetData>
